--- a/gams_results/gams_salt_st1_10m_forward.xlsx
+++ b/gams_results/gams_salt_st1_10m_forward.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="189">
   <si>
     <t>expr</t>
   </si>
@@ -235,75 +235,6 @@
     <t>QMinho + AMO_LAG_2</t>
   </si>
   <si>
-    <t>QMinho + Qs_CUMSUM_2 + datetime</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + monthofyear</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + UI</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + UI_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + UI_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + NAO</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + NAO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + NAO_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EA</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EA_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EA_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EAWR</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EAWR_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EAWR_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + SCAND</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + SCAND_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + SCAND_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + WP</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + WP_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + WP_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + AMO</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + AMO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + AMO_LAG_2</t>
-  </si>
-  <si>
     <t>{'datetime': [0.012772673921044874]}</t>
   </si>
   <si>
@@ -487,75 +418,6 @@
     <t>{'QMinho': [0.36413600605209], 'AMO_LAG_2': [0.011786221646034836]}</t>
   </si>
   <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'datetime': [0.012772673921044874]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'monthofyear': [0.17194474407866805]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'UI': [0.1151116195813407]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'UI_LAG_1': [0.23883966069926948]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'UI_LAG_2': [0.039222643579427126]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'NAO': [0.022852817943335397]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'NAO_LAG_1': [0.05003496046463469]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'NAO_LAG_2': [0.10893648579460882]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'EA': [0.017372704246129477]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'EA_LAG_1': [0.01962860425720774]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'EA_LAG_2': [0.0038575542241924793]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'EAWR': [0.0001232464062077754]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'EAWR_LAG_1': [0.012563582589195627]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'EAWR_LAG_2': [0.00021234293342025122]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'SCAND': [0.028505509008353146]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'SCAND_LAG_1': [0.0021704989840599146]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'SCAND_LAG_2': [0.008681406400984843]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'WP': [0.003989208360491693]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'WP_LAG_1': [0.006333362862992485]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'WP_LAG_2': [0.03172260643401577]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'AMO': [0.02309045189654294]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'AMO_LAG_1': [0.04582950237298702]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.36413600605209], 'Qs_CUMSUM_2': [0.11830377097532294], 'AMO_LAG_2': [0.011786221646034836]}</t>
-  </si>
-  <si>
     <t>[0.15608536608187829, 1.1102230246251565e-16]</t>
   </si>
   <si>
@@ -719,75 +581,6 @@
   </si>
   <si>
     <t>[1.1102230246251565e-16, 0.9127833619401763, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.005102516036622595, 0.20508634690768213, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.05088981796301972, 1.1102230246251565e-16, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.12537303601565464, 8.44798928519852e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.01096615646786836, 0.0002649425426622942, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0030806938215511837, 0.2897236791724357, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0038244518365344593, 0.2479582766842251, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.004555089022030501, 0.6836082176637543, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.00432432035698227, 0.7632919333898274, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0009109384619342409, 0.002991359401927962, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.005047956534415254, 0.5310008137391093, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.004442552998407012, 0.6563082606638191, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.004614238316478336, 0.030488224425160193, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.039175598365249864, 0.023241942421788675, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.021559043979894943, 0.038724234375415945, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0023426232558574345, 0.6244481119363674, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0046265490068804205, 0.8888690440532421, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0041333015093938386, 0.3158982250562412, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.004397880943493249, 0.1999747578808574, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0051079956636096435, 0.13037588616939566, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0035618720305995444, 0.28301330044348516, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.003448054447236837, 0.663100882430633, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0020728923658319687, 0.4327056445531041, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0017233669199371304, 0.9284046660141907, 1.1102230246251565e-16]</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,13 +1014,13 @@
         <v>0.8373859595333573</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="L2">
         <v>314</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1262,13 +1055,13 @@
         <v>0.7000894913256078</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="L3">
         <v>314</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1303,13 +1096,13 @@
         <v>0.7621648457751715</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L4">
         <v>314</v>
       </c>
       <c r="M4" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1344,13 +1137,13 @@
         <v>0.690432980536292</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="L5">
         <v>314</v>
       </c>
       <c r="M5" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1385,13 +1178,13 @@
         <v>0.6509266480448465</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="L6">
         <v>314</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1426,13 +1219,13 @@
         <v>0.7272290482703347</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="L7">
         <v>314</v>
       </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1467,13 +1260,13 @@
         <v>0.6896146601459237</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L8">
         <v>314</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1508,13 +1301,13 @@
         <v>0.6114727272772122</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="L9">
         <v>314</v>
       </c>
       <c r="M9" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1549,13 +1342,13 @@
         <v>1.512660887414108</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L10">
         <v>251</v>
       </c>
       <c r="M10" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1590,13 +1383,13 @@
         <v>0.7188451512539658</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="L11">
         <v>314</v>
       </c>
       <c r="M11" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1631,13 +1424,13 @@
         <v>0.6175079372044996</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="L12">
         <v>314</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1672,13 +1465,13 @@
         <v>0.6305027636037845</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>314</v>
       </c>
       <c r="M13" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1713,13 +1506,13 @@
         <v>0.6710583766059619</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="L14">
         <v>314</v>
       </c>
       <c r="M14" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1754,13 +1547,13 @@
         <v>0.6906715220765066</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="L15">
         <v>314</v>
       </c>
       <c r="M15" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1795,13 +1588,13 @@
         <v>0.771855335329502</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L16">
         <v>314</v>
       </c>
       <c r="M16" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1836,13 +1629,13 @@
         <v>0.8072270765995181</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L17">
         <v>314</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1877,13 +1670,13 @@
         <v>0.7987076034521384</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L18">
         <v>314</v>
       </c>
       <c r="M18" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1918,13 +1711,13 @@
         <v>0.7979809455056228</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L19">
         <v>314</v>
       </c>
       <c r="M19" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1959,13 +1752,13 @@
         <v>2.216953637369457</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="L20">
         <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2000,13 +1793,13 @@
         <v>0.7805778235245491</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="L21">
         <v>314</v>
       </c>
       <c r="M21" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2041,13 +1834,13 @@
         <v>0.7908455122030181</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="L22">
         <v>314</v>
       </c>
       <c r="M22" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2082,13 +1875,13 @@
         <v>0.7779751478013931</v>
       </c>
       <c r="K23" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="L23">
         <v>314</v>
       </c>
       <c r="M23" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2123,13 +1916,13 @@
         <v>0.7893003316560204</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="L24">
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2164,13 +1957,13 @@
         <v>0.7682187200546988</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="L25">
         <v>314</v>
       </c>
       <c r="M25" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2205,13 +1998,13 @@
         <v>0.7669666792613863</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="L26">
         <v>314</v>
       </c>
       <c r="M26" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2246,13 +2039,13 @@
         <v>0.7790902083435565</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="L27">
         <v>314</v>
       </c>
       <c r="M27" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2287,13 +2080,13 @@
         <v>0.7695243989206405</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="L28">
         <v>314</v>
       </c>
       <c r="M28" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2328,13 +2121,13 @@
         <v>0.7702882935805899</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>314</v>
       </c>
       <c r="M29" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2369,13 +2162,13 @@
         <v>0.7665203244034893</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="L30">
         <v>314</v>
       </c>
       <c r="M30" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2410,13 +2203,13 @@
         <v>0.7837652039824847</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="L31">
         <v>314</v>
       </c>
       <c r="M31" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2451,13 +2244,13 @@
         <v>0.75209857972246</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="L32">
         <v>314</v>
       </c>
       <c r="M32" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2492,13 +2285,13 @@
         <v>0.7427858373491851</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="L33">
         <v>314</v>
       </c>
       <c r="M33" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2533,13 +2326,13 @@
         <v>0.7603619881454595</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="L34">
         <v>314</v>
       </c>
       <c r="M34" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2574,13 +2367,13 @@
         <v>0.6254241135265833</v>
       </c>
       <c r="K35" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="L35">
         <v>314</v>
       </c>
       <c r="M35" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2615,13 +2408,13 @@
         <v>0.6606610391986596</v>
       </c>
       <c r="K36" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="L36">
         <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2656,13 +2449,13 @@
         <v>0.6548154982341748</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="L37">
         <v>314</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2697,13 +2490,13 @@
         <v>0.6431961971245616</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="L38">
         <v>314</v>
       </c>
       <c r="M38" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2738,13 +2531,13 @@
         <v>0.630080463990132</v>
       </c>
       <c r="K39" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="L39">
         <v>314</v>
       </c>
       <c r="M39" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2779,13 +2572,13 @@
         <v>0.6483938053592777</v>
       </c>
       <c r="K40" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="L40">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2820,13 +2613,13 @@
         <v>0.6430190987459086</v>
       </c>
       <c r="K41" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="L41">
         <v>314</v>
       </c>
       <c r="M41" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2861,13 +2654,13 @@
         <v>0.5963950764694868</v>
       </c>
       <c r="K42" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="L42">
         <v>314</v>
       </c>
       <c r="M42" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2902,13 +2695,13 @@
         <v>0.6437538290619097</v>
       </c>
       <c r="K43" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="L43">
         <v>314</v>
       </c>
       <c r="M43" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2943,13 +2736,13 @@
         <v>0.6517360538559593</v>
       </c>
       <c r="K44" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="L44">
         <v>314</v>
       </c>
       <c r="M44" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2984,13 +2777,13 @@
         <v>0.6657705218412149</v>
       </c>
       <c r="K45" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="L45">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3025,13 +2818,13 @@
         <v>0.6525369294163493</v>
       </c>
       <c r="K46" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="L46">
         <v>314</v>
       </c>
       <c r="M46" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3066,13 +2859,13 @@
         <v>0.6577812505857529</v>
       </c>
       <c r="K47" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="L47">
         <v>314</v>
       </c>
       <c r="M47" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3107,13 +2900,13 @@
         <v>0.6672357089545642</v>
       </c>
       <c r="K48" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="L48">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3148,13 +2941,13 @@
         <v>0.6564550005271386</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="L49">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3189,13 +2982,13 @@
         <v>0.6086997392506605</v>
       </c>
       <c r="K50" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="L50">
         <v>314</v>
       </c>
       <c r="M50" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3230,13 +3023,13 @@
         <v>0.6798042135570956</v>
       </c>
       <c r="K51" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="L51">
         <v>251</v>
       </c>
       <c r="M51" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3271,13 +3064,13 @@
         <v>0.5894522946243277</v>
       </c>
       <c r="K52" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="L52">
         <v>314</v>
       </c>
       <c r="M52" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3312,13 +3105,13 @@
         <v>0.6161489509301677</v>
       </c>
       <c r="K53" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="L53">
         <v>314</v>
       </c>
       <c r="M53" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3353,13 +3146,13 @@
         <v>0.613806375563981</v>
       </c>
       <c r="K54" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="L54">
         <v>314</v>
       </c>
       <c r="M54" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3394,13 +3187,13 @@
         <v>0.6152889880565621</v>
       </c>
       <c r="K55" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L55">
         <v>314</v>
       </c>
       <c r="M55" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3435,13 +3228,13 @@
         <v>0.615180767007478</v>
       </c>
       <c r="K56" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L56">
         <v>314</v>
       </c>
       <c r="M56" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3476,13 +3269,13 @@
         <v>0.6168247727683965</v>
       </c>
       <c r="K57" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="L57">
         <v>314</v>
       </c>
       <c r="M57" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3517,13 +3310,13 @@
         <v>0.6092682960261089</v>
       </c>
       <c r="K58" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="L58">
         <v>314</v>
       </c>
       <c r="M58" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3558,13 +3351,13 @@
         <v>0.6535930676082928</v>
       </c>
       <c r="K59" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="L59">
         <v>314</v>
       </c>
       <c r="M59" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3599,13 +3392,13 @@
         <v>0.6500100121318573</v>
       </c>
       <c r="K60" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L60">
         <v>314</v>
       </c>
       <c r="M60" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3640,13 +3433,13 @@
         <v>0.6502463417560361</v>
       </c>
       <c r="K61" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="L61">
         <v>314</v>
       </c>
       <c r="M61" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3681,956 +3474,13 @@
         <v>0.6495208008525206</v>
       </c>
       <c r="K62" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="L62">
         <v>314</v>
       </c>
       <c r="M62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63">
-        <v>646.4549600372542</v>
-      </c>
-      <c r="D63">
-        <v>0.4644899177825652</v>
-      </c>
-      <c r="E63">
-        <v>0.4901162714299361</v>
-      </c>
-      <c r="F63">
-        <v>0.4879445607334684</v>
-      </c>
-      <c r="G63">
-        <v>0.5047600870696534</v>
-      </c>
-      <c r="H63">
-        <v>-317.480764552301</v>
-      </c>
-      <c r="I63">
-        <v>0.4006242956483831</v>
-      </c>
-      <c r="J63">
-        <v>0.6221619811058309</v>
-      </c>
-      <c r="K63" t="s">
-        <v>157</v>
-      </c>
-      <c r="L63">
-        <v>251</v>
-      </c>
-      <c r="M63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64">
-        <v>645.8297492890121</v>
-      </c>
-      <c r="D64">
-        <v>0.4580106861753722</v>
-      </c>
-      <c r="E64">
-        <v>0.4953617701134052</v>
-      </c>
-      <c r="F64">
-        <v>0.4818980694897442</v>
-      </c>
-      <c r="G64">
-        <v>0.5083712130236159</v>
-      </c>
-      <c r="H64">
-        <v>-315.5432731783305</v>
-      </c>
-      <c r="I64">
-        <v>0.4035837696102604</v>
-      </c>
-      <c r="J64">
-        <v>0.6561774346088131</v>
-      </c>
-      <c r="K64" t="s">
-        <v>158</v>
-      </c>
-      <c r="L64">
-        <v>251</v>
-      </c>
-      <c r="M64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65">
-        <v>827.3483456105424</v>
-      </c>
-      <c r="D65">
-        <v>0.5263162652037555</v>
-      </c>
-      <c r="E65">
-        <v>0.5261191587774954</v>
-      </c>
-      <c r="F65">
-        <v>0.4374556285306958</v>
-      </c>
-      <c r="G65">
-        <v>0.5510623245831973</v>
-      </c>
-      <c r="H65">
-        <v>-402.1196026270469</v>
-      </c>
-      <c r="I65">
-        <v>0.3808359372611883</v>
-      </c>
-      <c r="J65">
-        <v>0.623338384766583</v>
-      </c>
-      <c r="K65" t="s">
-        <v>159</v>
-      </c>
-      <c r="L65">
-        <v>314</v>
-      </c>
-      <c r="M65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66">
-        <v>653.0864471017857</v>
-      </c>
-      <c r="D66">
-        <v>0.4764495768237432</v>
-      </c>
-      <c r="E66">
-        <v>0.5251247477018061</v>
-      </c>
-      <c r="F66">
-        <v>0.4437032031173588</v>
-      </c>
-      <c r="G66">
-        <v>0.5432715496325955</v>
-      </c>
-      <c r="H66">
-        <v>-316.2591928015137</v>
-      </c>
-      <c r="I66">
-        <v>0.4043069924579422</v>
-      </c>
-      <c r="J66">
-        <v>0.6701238895151859</v>
-      </c>
-      <c r="K66" t="s">
-        <v>160</v>
-      </c>
-      <c r="L66">
-        <v>251</v>
-      </c>
-      <c r="M66" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67">
-        <v>645.496353401697</v>
-      </c>
-      <c r="D67">
-        <v>0.4551259539000929</v>
-      </c>
-      <c r="E67">
-        <v>0.4865426634537419</v>
-      </c>
-      <c r="F67">
-        <v>0.4925995214002916</v>
-      </c>
-      <c r="G67">
-        <v>0.5003890616495981</v>
-      </c>
-      <c r="H67">
-        <v>-317.2328419741191</v>
-      </c>
-      <c r="I67">
-        <v>0.4052728139172389</v>
-      </c>
-      <c r="J67">
-        <v>0.6437470234938946</v>
-      </c>
-      <c r="K67" t="s">
-        <v>161</v>
-      </c>
-      <c r="L67">
-        <v>251</v>
-      </c>
-      <c r="M67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68">
-        <v>647.9002555065418</v>
-      </c>
-      <c r="D68">
-        <v>0.4554576080893264</v>
-      </c>
-      <c r="E68">
-        <v>0.4932239426756053</v>
-      </c>
-      <c r="F68">
-        <v>0.4836783090368584</v>
-      </c>
-      <c r="G68">
-        <v>0.5093558741094369</v>
-      </c>
-      <c r="H68">
-        <v>-318.3651111921808</v>
-      </c>
-      <c r="I68">
-        <v>0.4071767604319929</v>
-      </c>
-      <c r="J68">
-        <v>0.6583498579866851</v>
-      </c>
-      <c r="K68" t="s">
-        <v>162</v>
-      </c>
-      <c r="L68">
-        <v>251</v>
-      </c>
-      <c r="M68" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69">
-        <v>644.6538566369255</v>
-      </c>
-      <c r="D69">
-        <v>0.4518754099957307</v>
-      </c>
-      <c r="E69">
-        <v>0.4845219687158477</v>
-      </c>
-      <c r="F69">
-        <v>0.4953605287801877</v>
-      </c>
-      <c r="G69">
-        <v>0.497465131394999</v>
-      </c>
-      <c r="H69">
-        <v>-316.7395678731679</v>
-      </c>
-      <c r="I69">
-        <v>0.4050192595128554</v>
-      </c>
-      <c r="J69">
-        <v>0.648331723997849</v>
-      </c>
-      <c r="K69" t="s">
-        <v>163</v>
-      </c>
-      <c r="L69">
-        <v>251</v>
-      </c>
-      <c r="M69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70">
-        <v>644.8733863259657</v>
-      </c>
-      <c r="D70">
-        <v>0.4504141702293815</v>
-      </c>
-      <c r="E70">
-        <v>0.4851323708368117</v>
-      </c>
-      <c r="F70">
-        <v>0.4945397521869964</v>
-      </c>
-      <c r="G70">
-        <v>0.4983006373612455</v>
-      </c>
-      <c r="H70">
-        <v>-316.8495605506471</v>
-      </c>
-      <c r="I70">
-        <v>0.4057293102350883</v>
-      </c>
-      <c r="J70">
-        <v>0.6537061849913932</v>
-      </c>
-      <c r="K70" t="s">
-        <v>164</v>
-      </c>
-      <c r="L70">
-        <v>251</v>
-      </c>
-      <c r="M70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71">
-        <v>650.2212062047769</v>
-      </c>
-      <c r="D71">
-        <v>0.4643203836370228</v>
-      </c>
-      <c r="E71">
-        <v>0.4991309636912494</v>
-      </c>
-      <c r="F71">
-        <v>0.4757843074520737</v>
-      </c>
-      <c r="G71">
-        <v>0.5173620706339008</v>
-      </c>
-      <c r="H71">
-        <v>-319.5081228644426</v>
-      </c>
-      <c r="I71">
-        <v>0.4003448520654109</v>
-      </c>
-      <c r="J71">
-        <v>0.6439682139860671</v>
-      </c>
-      <c r="K71" t="s">
-        <v>165</v>
-      </c>
-      <c r="L71">
-        <v>251</v>
-      </c>
-      <c r="M71" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72">
-        <v>645.3036622792172</v>
-      </c>
-      <c r="D72">
-        <v>0.4519935761332198</v>
-      </c>
-      <c r="E72">
-        <v>0.4864001188423804</v>
-      </c>
-      <c r="F72">
-        <v>0.4928476071094528</v>
-      </c>
-      <c r="G72">
-        <v>0.4999929200563131</v>
-      </c>
-      <c r="H72">
-        <v>-317.0461812608408</v>
-      </c>
-      <c r="I72">
-        <v>0.4059783616763995</v>
-      </c>
-      <c r="J72">
-        <v>0.6532075062167585</v>
-      </c>
-      <c r="K72" t="s">
-        <v>166</v>
-      </c>
-      <c r="L72">
-        <v>251</v>
-      </c>
-      <c r="M72" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73">
-        <v>645.6761986180468</v>
-      </c>
-      <c r="D73">
-        <v>0.4509275345945172</v>
-      </c>
-      <c r="E73">
-        <v>0.4874211369738448</v>
-      </c>
-      <c r="F73">
-        <v>0.4914763417156955</v>
-      </c>
-      <c r="G73">
-        <v>0.5013873273394979</v>
-      </c>
-      <c r="H73">
-        <v>-317.231832133619</v>
-      </c>
-      <c r="I73">
-        <v>0.4026674709076687</v>
-      </c>
-      <c r="J73">
-        <v>0.6562260538456295</v>
-      </c>
-      <c r="K73" t="s">
-        <v>167</v>
-      </c>
-      <c r="L73">
-        <v>251</v>
-      </c>
-      <c r="M73" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74">
-        <v>646.784016818052</v>
-      </c>
-      <c r="D74">
-        <v>0.458551900275991</v>
-      </c>
-      <c r="E74">
-        <v>0.4946862242490266</v>
-      </c>
-      <c r="F74">
-        <v>0.4823439716623598</v>
-      </c>
-      <c r="G74">
-        <v>0.5091002045444895</v>
-      </c>
-      <c r="H74">
-        <v>-316.77308323977</v>
-      </c>
-      <c r="I74">
-        <v>0.4011127381310714</v>
-      </c>
-      <c r="J74">
-        <v>0.6514796554608623</v>
-      </c>
-      <c r="K74" t="s">
-        <v>168</v>
-      </c>
-      <c r="L74">
-        <v>251</v>
-      </c>
-      <c r="M74" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75">
-        <v>816.5766036722978</v>
-      </c>
-      <c r="D75">
-        <v>0.521293951624996</v>
-      </c>
-      <c r="E75">
-        <v>0.5209558568397268</v>
-      </c>
-      <c r="F75">
-        <v>0.4458110527842566</v>
-      </c>
-      <c r="G75">
-        <v>0.5378306573853781</v>
-      </c>
-      <c r="H75">
-        <v>-392.8725034011831</v>
-      </c>
-      <c r="I75">
-        <v>0.3820459795455089</v>
-      </c>
-      <c r="J75">
-        <v>0.655304301807737</v>
-      </c>
-      <c r="K75" t="s">
-        <v>169</v>
-      </c>
-      <c r="L75">
-        <v>314</v>
-      </c>
-      <c r="M75" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76">
-        <v>812.913921783473</v>
-      </c>
-      <c r="D76">
-        <v>0.5140495221991284</v>
-      </c>
-      <c r="E76">
-        <v>0.5136956775977199</v>
-      </c>
-      <c r="F76">
-        <v>0.4554071407802073</v>
-      </c>
-      <c r="G76">
-        <v>0.5280040981020102</v>
-      </c>
-      <c r="H76">
-        <v>-391.2067764288453</v>
-      </c>
-      <c r="I76">
-        <v>0.3884366059831235</v>
-      </c>
-      <c r="J76">
-        <v>0.6483857629600315</v>
-      </c>
-      <c r="K76" t="s">
-        <v>170</v>
-      </c>
-      <c r="L76">
-        <v>314</v>
-      </c>
-      <c r="M76" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77">
-        <v>645.6731384709262</v>
-      </c>
-      <c r="D77">
-        <v>0.4554460006294069</v>
-      </c>
-      <c r="E77">
-        <v>0.487384472652529</v>
-      </c>
-      <c r="F77">
-        <v>0.4915214067720143</v>
-      </c>
-      <c r="G77">
-        <v>0.5013520793941267</v>
-      </c>
-      <c r="H77">
-        <v>-317.2369857054417</v>
-      </c>
-      <c r="I77">
-        <v>0.4048190845545899</v>
-      </c>
-      <c r="J77">
-        <v>0.6455798575660362</v>
-      </c>
-      <c r="K77" t="s">
-        <v>171</v>
-      </c>
-      <c r="L77">
-        <v>251</v>
-      </c>
-      <c r="M77" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78">
-        <v>644.6717075023461</v>
-      </c>
-      <c r="D78">
-        <v>0.4516574183102176</v>
-      </c>
-      <c r="E78">
-        <v>0.4846324502076774</v>
-      </c>
-      <c r="F78">
-        <v>0.495220938569229</v>
-      </c>
-      <c r="G78">
-        <v>0.4975844950512327</v>
-      </c>
-      <c r="H78">
-        <v>-316.7343394524171</v>
-      </c>
-      <c r="I78">
-        <v>0.4048487640386446</v>
-      </c>
-      <c r="J78">
-        <v>0.6493811234996558</v>
-      </c>
-      <c r="K78" t="s">
-        <v>172</v>
-      </c>
-      <c r="L78">
-        <v>251</v>
-      </c>
-      <c r="M78" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79">
-        <v>645.5005864383154</v>
-      </c>
-      <c r="D79">
-        <v>0.4539058980927891</v>
-      </c>
-      <c r="E79">
-        <v>0.4869006506575554</v>
-      </c>
-      <c r="F79">
-        <v>0.4921693799295876</v>
-      </c>
-      <c r="G79">
-        <v>0.5006976488481261</v>
-      </c>
-      <c r="H79">
-        <v>-317.1538085901551</v>
-      </c>
-      <c r="I79">
-        <v>0.4033914282399088</v>
-      </c>
-      <c r="J79">
-        <v>0.6478598322281621</v>
-      </c>
-      <c r="K79" t="s">
-        <v>173</v>
-      </c>
-      <c r="L79">
-        <v>251</v>
-      </c>
-      <c r="M79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80">
-        <v>644.7366921888564</v>
-      </c>
-      <c r="D80">
-        <v>0.4523672069001558</v>
-      </c>
-      <c r="E80">
-        <v>0.4849633781964108</v>
-      </c>
-      <c r="F80">
-        <v>0.494798126180085</v>
-      </c>
-      <c r="G80">
-        <v>0.4979588611569575</v>
-      </c>
-      <c r="H80">
-        <v>-316.7319232594394</v>
-      </c>
-      <c r="I80">
-        <v>0.4049044276682953</v>
-      </c>
-      <c r="J80">
-        <v>0.6480619796876819</v>
-      </c>
-      <c r="K80" t="s">
-        <v>174</v>
-      </c>
-      <c r="L80">
-        <v>251</v>
-      </c>
-      <c r="M80" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81">
-        <v>645.3379180934702</v>
-      </c>
-      <c r="D81">
-        <v>0.4535539182955367</v>
-      </c>
-      <c r="E81">
-        <v>0.4866178296825012</v>
-      </c>
-      <c r="F81">
-        <v>0.4925732499887779</v>
-      </c>
-      <c r="G81">
-        <v>0.5002259655976871</v>
-      </c>
-      <c r="H81">
-        <v>-317.0343268586266</v>
-      </c>
-      <c r="I81">
-        <v>0.4043062357361379</v>
-      </c>
-      <c r="J81">
-        <v>0.6485376542875516</v>
-      </c>
-      <c r="K81" t="s">
-        <v>175</v>
-      </c>
-      <c r="L81">
-        <v>251</v>
-      </c>
-      <c r="M81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82">
-        <v>645.2467791898985</v>
-      </c>
-      <c r="D82">
-        <v>0.4530863709793443</v>
-      </c>
-      <c r="E82">
-        <v>0.4863502583285878</v>
-      </c>
-      <c r="F82">
-        <v>0.4929302538625951</v>
-      </c>
-      <c r="G82">
-        <v>0.4998691121849547</v>
-      </c>
-      <c r="H82">
-        <v>-316.992817167925</v>
-      </c>
-      <c r="I82">
-        <v>0.4040747370942338</v>
-      </c>
-      <c r="J82">
-        <v>0.6486319297090547</v>
-      </c>
-      <c r="K82" t="s">
-        <v>176</v>
-      </c>
-      <c r="L82">
-        <v>251</v>
-      </c>
-      <c r="M82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83">
-        <v>645.3858548551921</v>
-      </c>
-      <c r="D83">
-        <v>0.4559915488000007</v>
-      </c>
-      <c r="E83">
-        <v>0.4865366528354744</v>
-      </c>
-      <c r="F83">
-        <v>0.4926511054504327</v>
-      </c>
-      <c r="G83">
-        <v>0.5002260318056228</v>
-      </c>
-      <c r="H83">
-        <v>-317.1081056609823</v>
-      </c>
-      <c r="I83">
-        <v>0.4001307568297327</v>
-      </c>
-      <c r="J83">
-        <v>0.6410343817463391</v>
-      </c>
-      <c r="K83" t="s">
-        <v>177</v>
-      </c>
-      <c r="L83">
-        <v>251</v>
-      </c>
-      <c r="M83" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84">
-        <v>645.7958317432401</v>
-      </c>
-      <c r="D84">
-        <v>0.457194938158945</v>
-      </c>
-      <c r="E84">
-        <v>0.4876713299892654</v>
-      </c>
-      <c r="F84">
-        <v>0.4911293324808645</v>
-      </c>
-      <c r="G84">
-        <v>0.501768321510258</v>
-      </c>
-      <c r="H84">
-        <v>-317.3092265594773</v>
-      </c>
-      <c r="I84">
-        <v>0.3986768466665019</v>
-      </c>
-      <c r="J84">
-        <v>0.6400536098921251</v>
-      </c>
-      <c r="K84" t="s">
-        <v>178</v>
-      </c>
-      <c r="L84">
-        <v>251</v>
-      </c>
-      <c r="M84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85">
-        <v>646.4762348713215</v>
-      </c>
-      <c r="D85">
-        <v>0.4592715361164337</v>
-      </c>
-      <c r="E85">
-        <v>0.4895253320336845</v>
-      </c>
-      <c r="F85">
-        <v>0.4886436400290991</v>
-      </c>
-      <c r="G85">
-        <v>0.5042891230759098</v>
-      </c>
-      <c r="H85">
-        <v>-317.6440421015774</v>
-      </c>
-      <c r="I85">
-        <v>0.3958733796780234</v>
-      </c>
-      <c r="J85">
-        <v>0.638168685807934</v>
-      </c>
-      <c r="K85" t="s">
-        <v>179</v>
-      </c>
-      <c r="L85">
-        <v>251</v>
-      </c>
-      <c r="M85" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
